--- a/Symphony/2021/AUGUST/Others/Primary Secondary DSR wise draft target feedback August'2021 - Rajshahi Region.xlsx
+++ b/Symphony/2021/AUGUST/Others/Primary Secondary DSR wise draft target feedback August'2021 - Rajshahi Region.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\AUGUST\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="813" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="813"/>
   </bookViews>
   <sheets>
     <sheet name="Distributor Primary" sheetId="1" r:id="rId1"/>
@@ -1476,7 +1476,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1879,6 +1879,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="15" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1906,30 +1930,9 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="15" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2758,11 +2761,11 @@
   </sheetPr>
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3036,127 +3039,127 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="119" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:40" s="192" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="169" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="170" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="171">
         <f>SUMPRODUCT($G$2:$AN$2,G4:AN4)</f>
         <v>14000751.091250001</v>
       </c>
-      <c r="F4" s="126">
+      <c r="F4" s="172">
         <f>SUM(G4:AN4)</f>
         <v>7097</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="172">
         <v>273</v>
       </c>
-      <c r="H4" s="126">
+      <c r="H4" s="172">
         <v>319</v>
       </c>
-      <c r="I4" s="126">
+      <c r="I4" s="172">
         <v>273</v>
       </c>
-      <c r="J4" s="126">
+      <c r="J4" s="172">
         <v>90</v>
       </c>
-      <c r="K4" s="126">
+      <c r="K4" s="172">
         <v>193</v>
       </c>
-      <c r="L4" s="126">
+      <c r="L4" s="172">
         <v>144</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="172">
         <v>290</v>
       </c>
-      <c r="N4" s="126">
+      <c r="N4" s="172">
         <v>470</v>
       </c>
-      <c r="O4" s="126">
+      <c r="O4" s="172">
         <v>313</v>
       </c>
-      <c r="P4" s="126">
+      <c r="P4" s="172">
         <v>313</v>
       </c>
-      <c r="Q4" s="126">
+      <c r="Q4" s="172">
         <v>313</v>
       </c>
-      <c r="R4" s="126">
+      <c r="R4" s="172">
         <v>313</v>
       </c>
-      <c r="S4" s="126">
+      <c r="S4" s="172">
         <v>391</v>
       </c>
-      <c r="T4" s="126">
+      <c r="T4" s="172">
         <v>313</v>
       </c>
-      <c r="U4" s="126">
+      <c r="U4" s="172">
         <v>345</v>
       </c>
-      <c r="V4" s="126">
+      <c r="V4" s="172">
         <v>313</v>
       </c>
-      <c r="W4" s="126">
+      <c r="W4" s="172">
         <v>320</v>
       </c>
-      <c r="X4" s="126">
+      <c r="X4" s="172">
         <v>320</v>
       </c>
-      <c r="Y4" s="126">
+      <c r="Y4" s="172">
         <v>146</v>
       </c>
-      <c r="Z4" s="126">
+      <c r="Z4" s="172">
         <v>320</v>
       </c>
-      <c r="AA4" s="126">
+      <c r="AA4" s="172">
         <v>400</v>
       </c>
-      <c r="AB4" s="126">
+      <c r="AB4" s="172">
         <v>94</v>
       </c>
-      <c r="AC4" s="126">
+      <c r="AC4" s="172">
         <v>88</v>
       </c>
-      <c r="AD4" s="126">
+      <c r="AD4" s="172">
         <v>34</v>
       </c>
-      <c r="AE4" s="135">
+      <c r="AE4" s="190">
         <v>203</v>
       </c>
-      <c r="AF4" s="138">
+      <c r="AF4" s="191">
         <v>134</v>
       </c>
-      <c r="AG4" s="138">
+      <c r="AG4" s="191">
         <v>26</v>
       </c>
-      <c r="AH4" s="138">
+      <c r="AH4" s="191">
         <v>67</v>
       </c>
-      <c r="AI4" s="138">
+      <c r="AI4" s="191">
         <v>108</v>
       </c>
-      <c r="AJ4" s="138">
+      <c r="AJ4" s="191">
         <v>34</v>
       </c>
-      <c r="AK4" s="138">
+      <c r="AK4" s="191">
         <v>29</v>
       </c>
-      <c r="AL4" s="138">
+      <c r="AL4" s="191">
         <v>34</v>
       </c>
-      <c r="AM4" s="138">
+      <c r="AM4" s="191">
         <v>37</v>
       </c>
-      <c r="AN4" s="138">
+      <c r="AN4" s="191">
         <v>37</v>
       </c>
     </row>
@@ -4152,251 +4155,251 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="178" t="s">
+    <row r="13" spans="1:40" s="174" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="169" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="179" t="s">
+      <c r="D13" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="180">
+      <c r="E13" s="171">
         <f t="shared" si="0"/>
         <v>3529791.4725000006</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="172">
         <f t="shared" si="1"/>
         <v>2539</v>
       </c>
-      <c r="G13" s="180">
+      <c r="G13" s="171">
         <v>150</v>
       </c>
-      <c r="H13" s="180">
+      <c r="H13" s="171">
         <v>175</v>
       </c>
-      <c r="I13" s="180">
+      <c r="I13" s="171">
         <v>150</v>
       </c>
-      <c r="J13" s="180">
+      <c r="J13" s="171">
         <v>50</v>
       </c>
-      <c r="K13" s="180">
+      <c r="K13" s="171">
         <v>134</v>
       </c>
-      <c r="L13" s="180">
+      <c r="L13" s="171">
         <v>100</v>
       </c>
-      <c r="M13" s="180">
+      <c r="M13" s="171">
         <v>201</v>
       </c>
-      <c r="N13" s="180">
+      <c r="N13" s="171">
         <v>145</v>
       </c>
-      <c r="O13" s="180">
+      <c r="O13" s="171">
         <v>97</v>
       </c>
-      <c r="P13" s="180">
+      <c r="P13" s="171">
         <v>97</v>
       </c>
-      <c r="Q13" s="180">
+      <c r="Q13" s="171">
         <v>97</v>
       </c>
-      <c r="R13" s="180">
+      <c r="R13" s="171">
         <v>97</v>
       </c>
-      <c r="S13" s="180">
+      <c r="S13" s="171">
         <v>121</v>
       </c>
-      <c r="T13" s="180">
+      <c r="T13" s="171">
         <v>97</v>
       </c>
-      <c r="U13" s="180">
+      <c r="U13" s="171">
         <v>107</v>
       </c>
-      <c r="V13" s="180">
+      <c r="V13" s="171">
         <v>97</v>
       </c>
-      <c r="W13" s="180">
+      <c r="W13" s="171">
         <v>115</v>
       </c>
-      <c r="X13" s="180">
+      <c r="X13" s="171">
         <v>115</v>
       </c>
-      <c r="Y13" s="180">
+      <c r="Y13" s="171">
         <v>43</v>
       </c>
-      <c r="Z13" s="180">
+      <c r="Z13" s="171">
         <v>115</v>
       </c>
-      <c r="AA13" s="180">
+      <c r="AA13" s="171">
         <v>144</v>
       </c>
-      <c r="AB13" s="180">
+      <c r="AB13" s="171">
         <v>8</v>
       </c>
-      <c r="AC13" s="180">
+      <c r="AC13" s="171">
         <v>8</v>
       </c>
-      <c r="AD13" s="180">
+      <c r="AD13" s="171">
         <v>5</v>
       </c>
-      <c r="AE13" s="182">
+      <c r="AE13" s="173">
         <v>13</v>
       </c>
-      <c r="AF13" s="178">
+      <c r="AF13" s="169">
         <v>10</v>
       </c>
-      <c r="AG13" s="178">
+      <c r="AG13" s="169">
         <v>2</v>
       </c>
-      <c r="AH13" s="178">
+      <c r="AH13" s="169">
         <v>8</v>
       </c>
-      <c r="AI13" s="178">
+      <c r="AI13" s="169">
         <v>12</v>
       </c>
-      <c r="AJ13" s="178">
+      <c r="AJ13" s="169">
         <v>2</v>
       </c>
-      <c r="AK13" s="178">
+      <c r="AK13" s="169">
         <v>2</v>
       </c>
-      <c r="AL13" s="178">
+      <c r="AL13" s="169">
         <v>2</v>
       </c>
-      <c r="AM13" s="178">
+      <c r="AM13" s="169">
         <v>10</v>
       </c>
-      <c r="AN13" s="178">
+      <c r="AN13" s="169">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="178" t="s">
+    <row r="14" spans="1:40" s="174" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="169" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="179" t="s">
+      <c r="D14" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="180">
+      <c r="E14" s="171">
         <f t="shared" si="0"/>
         <v>5530298.7687499998</v>
       </c>
-      <c r="F14" s="181">
+      <c r="F14" s="172">
         <f t="shared" si="1"/>
         <v>3259</v>
       </c>
-      <c r="G14" s="180">
+      <c r="G14" s="171">
         <v>170</v>
       </c>
-      <c r="H14" s="180">
+      <c r="H14" s="171">
         <v>199</v>
       </c>
-      <c r="I14" s="180">
+      <c r="I14" s="171">
         <v>170</v>
       </c>
-      <c r="J14" s="180">
+      <c r="J14" s="171">
         <v>57</v>
       </c>
-      <c r="K14" s="180">
+      <c r="K14" s="171">
         <v>158</v>
       </c>
-      <c r="L14" s="180">
+      <c r="L14" s="171">
         <v>119</v>
       </c>
-      <c r="M14" s="180">
+      <c r="M14" s="171">
         <v>237</v>
       </c>
-      <c r="N14" s="180">
+      <c r="N14" s="171">
         <v>196</v>
       </c>
-      <c r="O14" s="180">
+      <c r="O14" s="171">
         <v>100</v>
       </c>
-      <c r="P14" s="180">
+      <c r="P14" s="171">
         <v>130</v>
       </c>
-      <c r="Q14" s="180">
+      <c r="Q14" s="171">
         <v>130</v>
       </c>
-      <c r="R14" s="180">
+      <c r="R14" s="171">
         <v>130</v>
       </c>
-      <c r="S14" s="180">
+      <c r="S14" s="171">
         <v>163</v>
       </c>
-      <c r="T14" s="180">
+      <c r="T14" s="171">
         <v>130</v>
       </c>
-      <c r="U14" s="180">
+      <c r="U14" s="171">
         <v>144</v>
       </c>
-      <c r="V14" s="180">
+      <c r="V14" s="171">
         <v>130</v>
       </c>
-      <c r="W14" s="180">
+      <c r="W14" s="171">
         <v>132</v>
       </c>
-      <c r="X14" s="180">
+      <c r="X14" s="171">
         <v>132</v>
       </c>
-      <c r="Y14" s="180">
+      <c r="Y14" s="171">
         <v>44</v>
       </c>
-      <c r="Z14" s="180">
+      <c r="Z14" s="171">
         <v>132</v>
       </c>
-      <c r="AA14" s="180">
+      <c r="AA14" s="171">
         <v>165</v>
       </c>
-      <c r="AB14" s="180">
+      <c r="AB14" s="171">
         <v>30</v>
       </c>
-      <c r="AC14" s="180">
+      <c r="AC14" s="171">
         <v>30</v>
       </c>
-      <c r="AD14" s="180">
+      <c r="AD14" s="171">
         <v>10</v>
       </c>
-      <c r="AE14" s="182">
+      <c r="AE14" s="173">
         <v>70</v>
       </c>
-      <c r="AF14" s="178">
+      <c r="AF14" s="169">
         <v>47</v>
       </c>
-      <c r="AG14" s="178">
+      <c r="AG14" s="169">
         <v>9</v>
       </c>
-      <c r="AH14" s="178">
+      <c r="AH14" s="169">
         <v>15</v>
       </c>
-      <c r="AI14" s="178">
+      <c r="AI14" s="169">
         <v>30</v>
       </c>
-      <c r="AJ14" s="178">
+      <c r="AJ14" s="169">
         <v>10</v>
       </c>
-      <c r="AK14" s="178">
+      <c r="AK14" s="169">
         <v>10</v>
       </c>
-      <c r="AL14" s="178">
+      <c r="AL14" s="169">
         <v>10</v>
       </c>
-      <c r="AM14" s="178">
+      <c r="AM14" s="169">
         <v>10</v>
       </c>
-      <c r="AN14" s="178">
+      <c r="AN14" s="169">
         <v>10</v>
       </c>
     </row>
@@ -4772,375 +4775,375 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="189" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="184" t="s">
+    <row r="18" spans="1:40" s="180" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="184" t="s">
+      <c r="B18" s="175" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="184" t="s">
+      <c r="C18" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="176" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="186">
+      <c r="E18" s="177">
         <f t="shared" si="0"/>
         <v>13704703.317500003</v>
       </c>
-      <c r="F18" s="187">
+      <c r="F18" s="178">
         <f t="shared" si="1"/>
         <v>6874</v>
       </c>
-      <c r="G18" s="186">
+      <c r="G18" s="177">
         <v>334</v>
       </c>
-      <c r="H18" s="186">
+      <c r="H18" s="177">
         <v>390</v>
       </c>
-      <c r="I18" s="186">
+      <c r="I18" s="177">
         <v>334</v>
       </c>
-      <c r="J18" s="186">
+      <c r="J18" s="177">
         <v>111</v>
       </c>
-      <c r="K18" s="186">
+      <c r="K18" s="177">
         <v>413</v>
       </c>
-      <c r="L18" s="186">
+      <c r="L18" s="177">
         <v>309</v>
       </c>
-      <c r="M18" s="186">
+      <c r="M18" s="177">
         <v>619</v>
       </c>
-      <c r="N18" s="186">
+      <c r="N18" s="177">
         <v>328</v>
       </c>
-      <c r="O18" s="186">
+      <c r="O18" s="177">
         <v>219</v>
       </c>
-      <c r="P18" s="186">
+      <c r="P18" s="177">
         <v>219</v>
       </c>
-      <c r="Q18" s="186">
+      <c r="Q18" s="177">
         <v>219</v>
       </c>
-      <c r="R18" s="186">
+      <c r="R18" s="177">
         <v>219</v>
       </c>
-      <c r="S18" s="186">
+      <c r="S18" s="177">
         <v>273</v>
       </c>
-      <c r="T18" s="186">
+      <c r="T18" s="177">
         <v>219</v>
       </c>
-      <c r="U18" s="186">
+      <c r="U18" s="177">
         <v>241</v>
       </c>
-      <c r="V18" s="186">
+      <c r="V18" s="177">
         <v>219</v>
       </c>
-      <c r="W18" s="186">
+      <c r="W18" s="177">
         <v>276</v>
       </c>
-      <c r="X18" s="186">
+      <c r="X18" s="177">
         <v>276</v>
       </c>
-      <c r="Y18" s="186">
+      <c r="Y18" s="177">
         <v>91</v>
       </c>
-      <c r="Z18" s="186">
+      <c r="Z18" s="177">
         <v>276</v>
       </c>
-      <c r="AA18" s="186">
+      <c r="AA18" s="177">
         <v>345</v>
       </c>
-      <c r="AB18" s="186">
+      <c r="AB18" s="177">
         <v>88</v>
       </c>
-      <c r="AC18" s="186">
+      <c r="AC18" s="177">
         <v>83</v>
       </c>
-      <c r="AD18" s="186">
+      <c r="AD18" s="177">
         <v>39</v>
       </c>
-      <c r="AE18" s="188">
+      <c r="AE18" s="179">
         <v>214</v>
       </c>
-      <c r="AF18" s="184">
+      <c r="AF18" s="175">
         <v>142</v>
       </c>
-      <c r="AG18" s="184">
+      <c r="AG18" s="175">
         <v>28</v>
       </c>
-      <c r="AH18" s="184">
+      <c r="AH18" s="175">
         <v>71</v>
       </c>
-      <c r="AI18" s="184">
+      <c r="AI18" s="175">
         <v>114</v>
       </c>
-      <c r="AJ18" s="184">
+      <c r="AJ18" s="175">
         <v>36</v>
       </c>
-      <c r="AK18" s="184">
+      <c r="AK18" s="175">
         <v>31</v>
       </c>
-      <c r="AL18" s="184">
+      <c r="AL18" s="175">
         <v>36</v>
       </c>
-      <c r="AM18" s="184">
+      <c r="AM18" s="175">
         <v>31</v>
       </c>
-      <c r="AN18" s="184">
+      <c r="AN18" s="175">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="178" t="s">
+    <row r="19" spans="1:40" s="174" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="169" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="179" t="s">
+      <c r="D19" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="180">
+      <c r="E19" s="171">
         <f t="shared" si="0"/>
         <v>8410022.3743750025</v>
       </c>
-      <c r="F19" s="181">
+      <c r="F19" s="172">
         <f t="shared" si="1"/>
         <v>4229</v>
       </c>
-      <c r="G19" s="180">
+      <c r="G19" s="171">
         <v>273</v>
       </c>
-      <c r="H19" s="180">
+      <c r="H19" s="171">
         <v>319</v>
       </c>
-      <c r="I19" s="180">
+      <c r="I19" s="171">
         <v>273</v>
       </c>
-      <c r="J19" s="180">
+      <c r="J19" s="171">
         <v>91</v>
       </c>
-      <c r="K19" s="180">
+      <c r="K19" s="171">
         <v>153</v>
       </c>
-      <c r="L19" s="180">
+      <c r="L19" s="171">
         <v>115</v>
       </c>
-      <c r="M19" s="180">
+      <c r="M19" s="171">
         <v>229</v>
       </c>
-      <c r="N19" s="180">
+      <c r="N19" s="171">
         <v>237</v>
       </c>
-      <c r="O19" s="180">
+      <c r="O19" s="171">
         <v>248</v>
       </c>
-      <c r="P19" s="180">
+      <c r="P19" s="171">
         <v>158</v>
       </c>
-      <c r="Q19" s="180">
+      <c r="Q19" s="171">
         <v>158</v>
       </c>
-      <c r="R19" s="180">
+      <c r="R19" s="171">
         <v>158</v>
       </c>
-      <c r="S19" s="180">
+      <c r="S19" s="171">
         <v>198</v>
       </c>
-      <c r="T19" s="180">
+      <c r="T19" s="171">
         <v>158</v>
       </c>
-      <c r="U19" s="180">
+      <c r="U19" s="171">
         <v>174</v>
       </c>
-      <c r="V19" s="180">
+      <c r="V19" s="171">
         <v>158</v>
       </c>
-      <c r="W19" s="180">
+      <c r="W19" s="171">
         <v>118</v>
       </c>
-      <c r="X19" s="180">
+      <c r="X19" s="171">
         <v>118</v>
       </c>
-      <c r="Y19" s="180">
+      <c r="Y19" s="171">
         <v>43</v>
       </c>
-      <c r="Z19" s="180">
+      <c r="Z19" s="171">
         <v>118</v>
       </c>
-      <c r="AA19" s="180">
+      <c r="AA19" s="171">
         <v>147</v>
       </c>
-      <c r="AB19" s="180">
+      <c r="AB19" s="171">
         <v>59</v>
       </c>
-      <c r="AC19" s="180">
+      <c r="AC19" s="171">
         <v>55</v>
       </c>
-      <c r="AD19" s="180">
+      <c r="AD19" s="171">
         <v>21</v>
       </c>
-      <c r="AE19" s="182">
+      <c r="AE19" s="173">
         <v>125</v>
       </c>
-      <c r="AF19" s="178">
+      <c r="AF19" s="169">
         <v>84</v>
       </c>
-      <c r="AG19" s="178">
+      <c r="AG19" s="169">
         <v>17</v>
       </c>
-      <c r="AH19" s="178">
+      <c r="AH19" s="169">
         <v>45</v>
       </c>
-      <c r="AI19" s="178">
+      <c r="AI19" s="169">
         <v>67</v>
       </c>
-      <c r="AJ19" s="178">
+      <c r="AJ19" s="169">
         <v>21</v>
       </c>
-      <c r="AK19" s="178">
+      <c r="AK19" s="169">
         <v>18</v>
       </c>
-      <c r="AL19" s="178">
+      <c r="AL19" s="169">
         <v>21</v>
       </c>
-      <c r="AM19" s="178">
+      <c r="AM19" s="169">
         <v>26</v>
       </c>
-      <c r="AN19" s="178">
+      <c r="AN19" s="169">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="178" t="s">
+    <row r="20" spans="1:40" s="174" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="169" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="179" t="s">
+      <c r="D20" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="180">
+      <c r="E20" s="171">
         <f t="shared" si="0"/>
         <v>8419132.0918749999</v>
       </c>
-      <c r="F20" s="181">
+      <c r="F20" s="172">
         <f t="shared" si="1"/>
         <v>4949</v>
       </c>
-      <c r="G20" s="180">
+      <c r="G20" s="171">
         <v>271</v>
       </c>
-      <c r="H20" s="180">
+      <c r="H20" s="171">
         <v>316</v>
       </c>
-      <c r="I20" s="180">
+      <c r="I20" s="171">
         <v>271</v>
       </c>
-      <c r="J20" s="180">
+      <c r="J20" s="171">
         <v>90</v>
       </c>
-      <c r="K20" s="180">
+      <c r="K20" s="171">
         <v>257</v>
       </c>
-      <c r="L20" s="180">
+      <c r="L20" s="171">
         <v>192</v>
       </c>
-      <c r="M20" s="180">
+      <c r="M20" s="171">
         <v>385</v>
       </c>
-      <c r="N20" s="180">
+      <c r="N20" s="171">
         <v>244</v>
       </c>
-      <c r="O20" s="180">
+      <c r="O20" s="171">
         <v>163</v>
       </c>
-      <c r="P20" s="180">
+      <c r="P20" s="171">
         <v>163</v>
       </c>
-      <c r="Q20" s="180">
+      <c r="Q20" s="171">
         <v>163</v>
       </c>
-      <c r="R20" s="180">
+      <c r="R20" s="171">
         <v>163</v>
       </c>
-      <c r="S20" s="180">
+      <c r="S20" s="171">
         <v>203</v>
       </c>
-      <c r="T20" s="180">
+      <c r="T20" s="171">
         <v>163</v>
       </c>
-      <c r="U20" s="180">
+      <c r="U20" s="171">
         <v>179</v>
       </c>
-      <c r="V20" s="180">
+      <c r="V20" s="171">
         <v>163</v>
       </c>
-      <c r="W20" s="180">
+      <c r="W20" s="171">
         <v>245</v>
       </c>
-      <c r="X20" s="180">
+      <c r="X20" s="171">
         <v>245</v>
       </c>
-      <c r="Y20" s="180">
+      <c r="Y20" s="171">
         <v>76</v>
       </c>
-      <c r="Z20" s="180">
+      <c r="Z20" s="171">
         <v>245</v>
       </c>
-      <c r="AA20" s="180">
+      <c r="AA20" s="171">
         <v>306</v>
       </c>
-      <c r="AB20" s="180">
+      <c r="AB20" s="171">
         <v>55</v>
       </c>
-      <c r="AC20" s="180">
+      <c r="AC20" s="171">
         <v>51</v>
       </c>
-      <c r="AD20" s="180">
+      <c r="AD20" s="171">
         <v>17</v>
       </c>
-      <c r="AE20" s="182">
+      <c r="AE20" s="173">
         <v>83</v>
       </c>
-      <c r="AF20" s="178">
+      <c r="AF20" s="169">
         <v>58</v>
       </c>
-      <c r="AG20" s="178">
+      <c r="AG20" s="169">
         <v>11</v>
       </c>
-      <c r="AH20" s="178">
+      <c r="AH20" s="169">
         <v>39</v>
       </c>
-      <c r="AI20" s="178">
+      <c r="AI20" s="169">
         <v>58</v>
       </c>
-      <c r="AJ20" s="178">
+      <c r="AJ20" s="169">
         <v>14</v>
       </c>
-      <c r="AK20" s="178">
+      <c r="AK20" s="169">
         <v>12</v>
       </c>
-      <c r="AL20" s="178">
+      <c r="AL20" s="169">
         <v>14</v>
       </c>
-      <c r="AM20" s="178">
+      <c r="AM20" s="169">
         <v>17</v>
       </c>
-      <c r="AN20" s="178">
+      <c r="AN20" s="169">
         <v>17</v>
       </c>
     </row>
@@ -5889,12 +5892,12 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="11">
         <f t="shared" ref="E27" si="2">SUM(E4:E26)</f>
         <v>240116043.12500003</v>
@@ -9190,12 +9193,12 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="181"/>
       <c r="E27" s="11">
         <f>SUM(E4:E26)</f>
         <v>247808430</v>
@@ -9392,23 +9395,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
       <c r="H1" s="155">
         <v>1000</v>
       </c>
@@ -9513,13 +9516,13 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="50" t="s">
         <v>286</v>
       </c>
@@ -26050,11 +26053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A77" sqref="A77:XFD83"/>
+      <selection pane="bottomRight" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -26082,25 +26085,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="E1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="184" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="108">
@@ -26207,13 +26210,13 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="109" t="s">
         <v>286</v>
       </c>
@@ -47775,25 +47778,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="177" t="s">
+      <c r="E1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="172" t="s">
+      <c r="F1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="172" t="s">
+      <c r="G1" s="184" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="108">
@@ -47900,13 +47903,13 @@
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="109" t="s">
         <v>286</v>
       </c>

--- a/Symphony/2021/AUGUST/Others/Primary Secondary DSR wise draft target feedback August'2021 - Rajshahi Region.xlsx
+++ b/Symphony/2021/AUGUST/Others/Primary Secondary DSR wise draft target feedback August'2021 - Rajshahi Region.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\AUGUST\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\August\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1903,6 +1903,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1930,9 +1933,6 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2765,7 +2765,7 @@
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3039,7 +3039,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="192" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="183" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="169" t="s">
         <v>165</v>
       </c>
@@ -3132,34 +3132,34 @@
       <c r="AD4" s="172">
         <v>34</v>
       </c>
-      <c r="AE4" s="190">
+      <c r="AE4" s="181">
         <v>203</v>
       </c>
-      <c r="AF4" s="191">
+      <c r="AF4" s="182">
         <v>134</v>
       </c>
-      <c r="AG4" s="191">
+      <c r="AG4" s="182">
         <v>26</v>
       </c>
-      <c r="AH4" s="191">
+      <c r="AH4" s="182">
         <v>67</v>
       </c>
-      <c r="AI4" s="191">
+      <c r="AI4" s="182">
         <v>108</v>
       </c>
-      <c r="AJ4" s="191">
+      <c r="AJ4" s="182">
         <v>34</v>
       </c>
-      <c r="AK4" s="191">
+      <c r="AK4" s="182">
         <v>29</v>
       </c>
-      <c r="AL4" s="191">
+      <c r="AL4" s="182">
         <v>34</v>
       </c>
-      <c r="AM4" s="191">
+      <c r="AM4" s="182">
         <v>37</v>
       </c>
-      <c r="AN4" s="191">
+      <c r="AN4" s="182">
         <v>37</v>
       </c>
     </row>
@@ -5892,12 +5892,12 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="11">
         <f t="shared" ref="E27" si="2">SUM(E4:E26)</f>
         <v>240116043.12500003</v>
@@ -9193,12 +9193,12 @@
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="181"/>
-      <c r="C27" s="181"/>
-      <c r="D27" s="181"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
       <c r="E27" s="11">
         <f>SUM(E4:E26)</f>
         <v>247808430</v>
@@ -9395,23 +9395,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="183" t="s">
+      <c r="E1" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="155">
         <v>1000</v>
       </c>
@@ -9516,13 +9516,13 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
+      <c r="A2" s="186"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
       <c r="H2" s="50" t="s">
         <v>286</v>
       </c>
@@ -26085,25 +26085,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="E1" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="187" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="108">
@@ -26210,13 +26210,13 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A2" s="186"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="109" t="s">
         <v>286</v>
       </c>
@@ -47778,25 +47778,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="187" t="s">
+      <c r="C1" s="190" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="189" t="s">
+      <c r="E1" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="184" t="s">
+      <c r="F1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="184" t="s">
+      <c r="G1" s="187" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="108">
@@ -47903,13 +47903,13 @@
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.2">
-      <c r="A2" s="186"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
       <c r="H2" s="109" t="s">
         <v>286</v>
       </c>
